--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Etiology Code System</t>
+    <t>Stroke Etiology CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes indicating the etiology of strokes.</t>
+    <t>Local CodeSystem defining categories for **ischemic stroke etiology** classification.
+**Primary use-case**
+- Used via `StrokeEtiologyVS` as the required vocabulary for `StrokeStrokeEtiologyExt.valueCodeableConcept`
+  on a definitive ischemic stroke Condition.
+**Why it exists**
+- Stroke etiology classification often mixes internationally standard categories (cardioembolic, lacunar, cryptogenic) with local operational buckets.
+**Modeling notes**
+- This CodeSystem is intended for “final etiology classification” after diagnostic workup, not for provisional hypotheses.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
